--- a/retail-power-compare/data/products-you-could-buy-per-capita.xlsx
+++ b/retail-power-compare/data/products-you-could-buy-per-capita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Darren/Github clones/data-projects/retail-power-compare/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FE2DBA-3557-E740-A5F4-78BE9A34E04B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692AE4EE-852F-A94B-B3DB-56FFEE70F5DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{94BEB61A-99A7-6A43-8114-75E7C06F76BC}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/retail-power-compare/data/products-you-could-buy-per-capita.xlsx
+++ b/retail-power-compare/data/products-you-could-buy-per-capita.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Darren/Github clones/data-projects/retail-power-compare/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692AE4EE-852F-A94B-B3DB-56FFEE70F5DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{94BEB61A-99A7-6A43-8114-75E7C06F76BC}"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="19320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="130407"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,12 +20,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Product</t>
   </si>
@@ -58,17 +55,101 @@
   </si>
   <si>
     <t>Per CEP customers quantity</t>
+  </si>
+  <si>
+    <t>Product label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>months of electricity (avg. household)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow bananas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>whole seeded watermelons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eastern peaches</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>individually wrapped Swedish Fish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meals (avg. cost)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>live lobsters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marlboro Red Label King cigarettes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hours of lane time at Bayside Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candlepin games at Big 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pounds of Gulf of Maine mussels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanksgiving turkeys from Tide Mill Farm in Edmunds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impossible Whoppers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cans of Moxie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pairs of Chamois-lined Bean Boots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supercut haircuts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expired meter ticket payments in Portland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>packages of Maurice Bonneau's Andouille Sausage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>whoopie pies from Grammy's Country Inn in Linneus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +164,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -125,13 +223,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -186,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -238,7 +338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -432,758 +532,837 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777447D3-2503-AE49-AEE1-6DA8318B3B99}">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="23.5" style="4" customWidth="1"/>
+    <col min="1" max="2" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1"/>
+    <col min="5" max="5" width="10.625" style="2"/>
+    <col min="6" max="6" width="23.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="48">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>42.9</v>
       </c>
-      <c r="D2" s="2">
-        <f>(C2*1.055)/B2</f>
+      <c r="E2" s="2">
+        <f>(D2*1.055)/C2</f>
         <v>45.259499999999996</v>
       </c>
-      <c r="E2" s="4">
-        <f>ROUNDDOWN(132508457/D2,0)</f>
+      <c r="F2" s="4">
+        <f>ROUNDDOWN(132508457/E2,0)</f>
         <v>2927749</v>
       </c>
-      <c r="F2">
-        <f>ROUND(E2/1338404,1)</f>
+      <c r="G2">
+        <f>ROUND(F2/1338404,1)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="G2" s="5">
-        <f>ROUND(E2/557219,1)</f>
+      <c r="H2" s="5">
+        <f>ROUND(F2/557219,1)</f>
         <v>5.3</v>
       </c>
-      <c r="H2" s="5">
-        <f>ROUND(E2/156597,1)</f>
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="11">
+        <f>ROUND(F2/146098,1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="str">
         <f>HYPERLINK("https://www.amazon.com/Quilted-Northern-Toilet-Supreme-Regular/dp/B01B5KAAUS","Quilted Northern Ultra Plush Toilet Paper rolls")</f>
         <v>Quilted Northern Ultra Plush Toilet Paper rolls</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3" t="str">
+        <f>HYPERLINK("https://www.amazon.com/Quilted-Northern-Toilet-Supreme-Regular/dp/B01B5KAAUS","Quilted Northern Ultra Plush Toilet Paper rolls")</f>
+        <v>Quilted Northern Ultra Plush Toilet Paper rolls</v>
+      </c>
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>27.99</v>
       </c>
-      <c r="D3" s="2">
-        <f>(C3*1.055)/B3</f>
+      <c r="E3" s="2">
+        <f>(D3*1.055)/C3</f>
         <v>1.23039375</v>
       </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E23" si="0">ROUNDDOWN(132508457/D3,0)</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F23" si="0">ROUNDDOWN(132508457/E3,0)</f>
         <v>107695976</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F15" si="1">ROUND(E3/1338404,1)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="1">ROUND(F3/1338404,1)</f>
         <v>80.5</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G23" si="2">ROUND(E3/557219,1)</f>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H23" si="2">ROUND(F3/557219,1)</f>
         <v>193.3</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H23" si="3">ROUND(E3/156597,1)</f>
-        <v>687.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I23" si="3">ROUND(F3/146098,1)</f>
+        <v>737.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="str">
         <f>HYPERLINK("https://www.amazon.com/Stetson-Mens-Open-Cowboy-Silverbelly/dp/B0048FHJIE/ref=sr_1_7?keywords=stetson%2Bhat&amp;qid=1567995720&amp;s=gateway&amp;sr=8-7&amp;th=1&amp;psc=1","Stetson Open Road Fur Felt Cowboy Hat")</f>
         <v>Stetson Open Road Fur Felt Cowboy Hat</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="10" t="str">
+        <f>HYPERLINK("https://www.amazon.com/Stetson-Mens-Open-Cowboy-Silverbelly/dp/B0048FHJIE/ref=sr_1_7?keywords=stetson%2Bhat&amp;qid=1567995720&amp;s=gateway&amp;sr=8-7&amp;th=1&amp;psc=1","Stetson Open Road Fur Felt Cowboy Hats")</f>
+        <v>Stetson Open Road Fur Felt Cowboy Hats</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>143.03</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D18" si="4">(C4*1.055)/B4</f>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E18" si="4">(D4*1.055)/C4</f>
         <v>150.89664999999999</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>878140</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="3"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="str">
         <f>HYPERLINK("https://www.amazon.com/NERF-Fortnite-Super-Soaker-Blaster/dp/B07M6RXWS3/ref=sr_1_6?keywords=supersoakers&amp;qid=1567995986&amp;s=gateway&amp;sr=8-6","NERF Fortnite TS-R Super Soaker Water Blaster Toy")</f>
         <v>NERF Fortnite TS-R Super Soaker Water Blaster Toy</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="10" t="str">
+        <f>HYPERLINK("https://www.amazon.com/NERF-Fortnite-Super-Soaker-Blaster/dp/B07M6RXWS3/ref=sr_1_6?keywords=supersoakers&amp;qid=1567995986&amp;s=gateway&amp;sr=8-6","NERF Fortnite TS-R Super Soaker Water Blaster Toys")</f>
+        <v>NERF Fortnite TS-R Super Soaker Water Blaster Toys</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>19.87</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="4"/>
         <v>20.96285</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>6321108</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>11.3</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="3"/>
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="11">
+        <f t="shared" si="3"/>
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/yellow-bananas/690665?refineByCategoryId=46817","Yellow Bananas")</f>
         <v>Yellow Bananas</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>2.5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.49</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <f t="shared" si="4"/>
         <v>0.20677999999999996</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>640818536</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>478.8</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="3"/>
-        <v>4092.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="11">
+        <f t="shared" si="3"/>
+        <v>4386.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/whole-seeded-watermelons/690680?refineByCategoryId=46823","Whole Seeded Watermelons")</f>
         <v>Whole Seeded Watermelons</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>7.99</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <f t="shared" si="4"/>
         <v>8.4294499999999992</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>15719703</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>11.7</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>28.2</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" si="3"/>
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="11">
+        <f t="shared" si="3"/>
+        <v>107.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/eastern-peaches/690875?refineByCategoryId=46824","Eastern Peaches")</f>
         <v>Eastern Peaches</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1.99</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <f t="shared" si="4"/>
         <v>1.049725</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>126231591</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>94.3</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>226.5</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" si="3"/>
-        <v>806.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="11">
+        <f t="shared" si="3"/>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="str">
         <f>HYPERLINK("https://www.amazon.com/Count-SWEDISH-Chewy-Individually-Wrapped/dp/B004KAT9HQ","Individually wrapped Swedish Fish")</f>
         <v>Individually wrapped Swedish Fish</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
         <v>240</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>13.99</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <f t="shared" si="4"/>
         <v>6.1497708333333331E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>2154689346</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>1609.9</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>3866.9</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>13759.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="11">
+        <f t="shared" si="3"/>
+        <v>14748.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="str">
         <f>HYPERLINK("https://www.gbfb.org/news/press-releases/cost-food-massachusetts/","Cost of the average meal -- in Mass.")</f>
         <v>Cost of the average meal -- in Mass.</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>3.55</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <f t="shared" si="4"/>
         <v>3.7452499999999995</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>35380403</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>26.4</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>63.5</v>
       </c>
-      <c r="H10" s="5">
-        <f t="shared" si="3"/>
-        <v>225.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="11">
+        <f t="shared" si="3"/>
+        <v>242.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/live-lobsters/955032?refineByCategoryId=46878","Live Lobsters")</f>
         <v>Live Lobsters</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>10.49</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <f t="shared" si="4"/>
         <v>11.06695</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>11973349</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="11">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/marlboro-red-label-king-box-pack-cigarettes/871634?refineByCategoryId=47860","Marlboro Red Label King Cigarettes")</f>
         <v>Marlboro Red Label King Cigarettes</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
         <v>100</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>45.5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <f t="shared" si="4"/>
         <v>0.48002499999999998</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>276044908</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>206.2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>495.4</v>
       </c>
-      <c r="H12" s="5">
-        <f t="shared" si="3"/>
-        <v>1762.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="11">
+        <f t="shared" si="3"/>
+        <v>1889.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="str">
         <f>HYPERLINK("https://www.baysidebowl.com/bowl","An hour of lane time at Bayside Bowl")</f>
         <v>An hour of lane time at Bayside Bowl</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>30</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <f t="shared" si="4"/>
         <v>31.65</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>4186681</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="3"/>
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="11">
+        <f t="shared" si="3"/>
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="str">
         <f>HYPERLINK("https://www.big20bowling.com/","One game of candlepin bowling at Big 20")</f>
         <v>One game of candlepin bowling at Big 20</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <f t="shared" si="4"/>
         <v>4.22</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>31400108</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>56.4</v>
       </c>
-      <c r="H14" s="5">
-        <f t="shared" si="3"/>
-        <v>200.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="11">
+        <f t="shared" si="3"/>
+        <v>214.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/local-gulf-of-maine-wild-maine-mussels/951704?refineByCategoryId=46880","Pound of Gulf of Maine mussels")</f>
         <v>Pound of Gulf of Maine mussels</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>1.95</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="4"/>
         <v>2.0572499999999998</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>64410478</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>115.6</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" si="3"/>
-        <v>411.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="11">
+        <f t="shared" si="3"/>
+        <v>440.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="str">
         <f>HYPERLINK("https://tidemillorganicfarm.com/pdf/2019%20Summer%20Availability%20List.pdf","Thanksgiving Turkey (15 lbs.) from Tide Mill Farm in Edmunds")</f>
         <v>Thanksgiving Turkey (15 lbs.) from Tide Mill Farm in Edmunds</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>82.5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="4"/>
         <v>87.037499999999994</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>1522429</v>
       </c>
-      <c r="F16">
-        <f>ROUND(E16/1338404,1)</f>
+      <c r="G16">
+        <f>ROUND(F16/1338404,1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G16" s="5">
-        <f t="shared" si="2"/>
+      <c r="H16" s="5">
+        <f>ROUND(F16/557219,1)</f>
         <v>2.7</v>
       </c>
-      <c r="H16" s="5">
-        <f t="shared" si="3"/>
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="11">
+        <f t="shared" si="3"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="str">
         <f>HYPERLINK("https://www.usatoday.com/story/money/food/2019/08/01/burger-king-impossible-whopper-vegan-burger-going-nationwide/1821429001/","Impossible Whopper")</f>
         <v>Impossible Whopper</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>5.59</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <f t="shared" si="4"/>
         <v>5.8974499999999992</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>22468771</v>
       </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F23" si="5">ROUND(E17/1338404,1)</f>
+      <c r="G17">
+        <f t="shared" ref="G17:G23" si="5">ROUND(F17/1338404,1)</f>
         <v>16.8</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>40.299999999999997</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="3"/>
-        <v>143.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="11">
+        <f t="shared" si="3"/>
+        <v>153.80000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="str">
         <f>HYPERLINK("https://www.beveragesdirect.com/products/moxie-original-elixir-soda-cans","Can of Moxie")</f>
         <v>Can of Moxie</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>1.65</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <f t="shared" si="4"/>
         <v>1.7407499999999998</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>76121474</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="5"/>
         <v>56.9</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <f t="shared" si="2"/>
         <v>136.6</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="3"/>
-        <v>486.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="11">
+        <f t="shared" si="3"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="str">
         <f>HYPERLINK("https://www.llbean.com/llb/shop/119204?page=men-s-tumbled-leather-l-l-bean-boots-8-chamois-lined&amp;bc=474-506697-513858&amp;feat=513858-GN3&amp;csp=f&amp;attrValue_0=Tan/Brown/Gum/Apple%20Cinnamon","Chamois-lined Bean Boots")</f>
         <v>Chamois-lined Bean Boots</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>159</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:D23" si="6">(C19*1.055)/B19</f>
+      <c r="E19" s="2">
+        <f t="shared" ref="E19:E23" si="6">(D19*1.055)/C19</f>
         <v>167.74499999999998</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>789939</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="11">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="str">
         <f>HYPERLINK("https://pricely.org/supercuts-prices/","A Supercut haircut")</f>
         <v>A Supercut haircut</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>21.49</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <f t="shared" si="6"/>
         <v>22.671949999999995</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>5844599</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="H20" s="5">
-        <f t="shared" si="3"/>
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="11">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="str">
         <f>HYPERLINK("https://www.portlandmaine.gov/416/Ticket-Fees-Violations","Portland expired meter tickets")</f>
         <v>Portland expired meter tickets</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <f t="shared" si="6"/>
         <v>21.099999999999998</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>6280021</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="5"/>
         <v>4.7</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="2"/>
         <v>11.3</v>
       </c>
-      <c r="H21" s="5">
-        <f t="shared" si="3"/>
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="11">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="str">
         <f>HYPERLINK("http://www.sausagekitchen.com/Cajun-Andouille-P17.aspx","Package of Maurice Bonneau's Andouille Sausage")</f>
         <v>Package of Maurice Bonneau's Andouille Sausage</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <f t="shared" si="6"/>
         <v>9.4422499999999978</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>14033567</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="2"/>
         <v>25.2</v>
       </c>
-      <c r="H22" s="5">
-        <f t="shared" si="3"/>
-        <v>89.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="11">
+        <f t="shared" si="3"/>
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="str">
         <f>HYPERLINK("https://www.facebook.com/318021972096/photos/a.10155603310242097/10155603316112097/?type=3&amp;theater","Whoopie Pie from Grammy's Country Inn in Linneus")</f>
         <v>Whoopie Pie from Grammy's Country Inn in Linneus</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>5.49</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <f t="shared" si="6"/>
         <v>5.7919499999999999</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>22878038</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="5"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
         <v>41.1</v>
       </c>
-      <c r="H23" s="5">
-        <f t="shared" si="3"/>
-        <v>146.1</v>
+      <c r="I23" s="11">
+        <f t="shared" si="3"/>
+        <v>156.6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/retail-power-compare/data/products-you-could-buy-per-capita.xlsx
+++ b/retail-power-compare/data/products-you-could-buy-per-capita.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darren/Documents/GitHub/data-projects/retail-power-compare/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FEFC3C-833D-354F-8F0C-6F943F6D6396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="19320"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -140,16 +148,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,29 +536,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1"/>
-    <col min="5" max="5" width="10.625" style="2"/>
+    <col min="4" max="4" width="10.6640625" style="1"/>
+    <col min="5" max="5" width="10.6640625" style="2"/>
     <col min="6" max="6" width="23.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="48">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -583,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -617,7 +621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f>HYPERLINK("https://www.amazon.com/Quilted-Northern-Toilet-Supreme-Regular/dp/B01B5KAAUS","Quilted Northern Ultra Plush Toilet Paper rolls")</f>
         <v>Quilted Northern Ultra Plush Toilet Paper rolls</v>
@@ -653,7 +657,7 @@
         <v>737.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f>HYPERLINK("https://www.amazon.com/Stetson-Mens-Open-Cowboy-Silverbelly/dp/B0048FHJIE/ref=sr_1_7?keywords=stetson%2Bhat&amp;qid=1567995720&amp;s=gateway&amp;sr=8-7&amp;th=1&amp;psc=1","Stetson Open Road Fur Felt Cowboy Hat")</f>
         <v>Stetson Open Road Fur Felt Cowboy Hat</v>
@@ -689,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>HYPERLINK("https://www.amazon.com/NERF-Fortnite-Super-Soaker-Blaster/dp/B07M6RXWS3/ref=sr_1_6?keywords=supersoakers&amp;qid=1567995986&amp;s=gateway&amp;sr=8-6","NERF Fortnite TS-R Super Soaker Water Blaster Toy")</f>
         <v>NERF Fortnite TS-R Super Soaker Water Blaster Toy</v>
@@ -725,7 +729,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/yellow-bananas/690665?refineByCategoryId=46817","Yellow Bananas")</f>
         <v>Yellow Bananas</v>
@@ -760,7 +764,7 @@
         <v>4386.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/whole-seeded-watermelons/690680?refineByCategoryId=46823","Whole Seeded Watermelons")</f>
         <v>Whole Seeded Watermelons</v>
@@ -795,7 +799,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/eastern-peaches/690875?refineByCategoryId=46824","Eastern Peaches")</f>
         <v>Eastern Peaches</v>
@@ -830,7 +834,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f>HYPERLINK("https://www.amazon.com/Count-SWEDISH-Chewy-Individually-Wrapped/dp/B004KAT9HQ","Individually wrapped Swedish Fish")</f>
         <v>Individually wrapped Swedish Fish</v>
@@ -865,7 +869,7 @@
         <v>14748.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f>HYPERLINK("https://www.gbfb.org/news/press-releases/cost-food-massachusetts/","Cost of the average meal -- in Mass.")</f>
         <v>Cost of the average meal -- in Mass.</v>
@@ -900,7 +904,7 @@
         <v>242.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/live-lobsters/955032?refineByCategoryId=46878","Live Lobsters")</f>
         <v>Live Lobsters</v>
@@ -935,7 +939,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/marlboro-red-label-king-box-pack-cigarettes/871634?refineByCategoryId=47860","Marlboro Red Label King Cigarettes")</f>
         <v>Marlboro Red Label King Cigarettes</v>
@@ -970,7 +974,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f>HYPERLINK("https://www.baysidebowl.com/bowl","An hour of lane time at Bayside Bowl")</f>
         <v>An hour of lane time at Bayside Bowl</v>
@@ -1005,7 +1009,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f>HYPERLINK("https://www.big20bowling.com/","One game of candlepin bowling at Big 20")</f>
         <v>One game of candlepin bowling at Big 20</v>
@@ -1040,7 +1044,7 @@
         <v>214.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f>HYPERLINK("https://www.hannaford.com/product/local-gulf-of-maine-wild-maine-mussels/951704?refineByCategoryId=46880","Pound of Gulf of Maine mussels")</f>
         <v>Pound of Gulf of Maine mussels</v>
@@ -1075,7 +1079,7 @@
         <v>440.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f>HYPERLINK("https://tidemillorganicfarm.com/pdf/2019%20Summer%20Availability%20List.pdf","Thanksgiving Turkey (15 lbs.) from Tide Mill Farm in Edmunds")</f>
         <v>Thanksgiving Turkey (15 lbs.) from Tide Mill Farm in Edmunds</v>
@@ -1110,7 +1114,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f>HYPERLINK("https://www.usatoday.com/story/money/food/2019/08/01/burger-king-impossible-whopper-vegan-burger-going-nationwide/1821429001/","Impossible Whopper")</f>
         <v>Impossible Whopper</v>
@@ -1145,7 +1149,7 @@
         <v>153.80000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f>HYPERLINK("https://www.beveragesdirect.com/products/moxie-original-elixir-soda-cans","Can of Moxie")</f>
         <v>Can of Moxie</v>
@@ -1180,7 +1184,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f>HYPERLINK("https://www.llbean.com/llb/shop/119204?page=men-s-tumbled-leather-l-l-bean-boots-8-chamois-lined&amp;bc=474-506697-513858&amp;feat=513858-GN3&amp;csp=f&amp;attrValue_0=Tan/Brown/Gum/Apple%20Cinnamon","Chamois-lined Bean Boots")</f>
         <v>Chamois-lined Bean Boots</v>
@@ -1215,7 +1219,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f>HYPERLINK("https://pricely.org/supercuts-prices/","A Supercut haircut")</f>
         <v>A Supercut haircut</v>
@@ -1250,7 +1254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f>HYPERLINK("https://www.portlandmaine.gov/416/Ticket-Fees-Violations","Portland expired meter tickets")</f>
         <v>Portland expired meter tickets</v>
@@ -1285,7 +1289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f>HYPERLINK("http://www.sausagekitchen.com/Cajun-Andouille-P17.aspx","Package of Maurice Bonneau's Andouille Sausage")</f>
         <v>Package of Maurice Bonneau's Andouille Sausage</v>
@@ -1320,7 +1324,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f>HYPERLINK("https://www.facebook.com/318021972096/photos/a.10155603310242097/10155603316112097/?type=3&amp;theater","Whoopie Pie from Grammy's Country Inn in Linneus")</f>
         <v>Whoopie Pie from Grammy's Country Inn in Linneus</v>
